--- a/Master.xlsx
+++ b/Master.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpere\Escritorio\Jose's Project\04-Villa Koi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{954D7629-3F1D-4BBF-B0E1-FBB6E05E263F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0D0CE4-409C-42B3-B4E0-6D7CF24EEF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
     <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name="colores" sheetId="3" r:id="rId3"/>
+    <sheet name="plan" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
   <si>
     <t>nov y dic</t>
   </si>
@@ -159,9 +161,6 @@
     <t>decir que la idea  de este HERO es que al usuario entrar ver  una vista despejada con cosas especificas; numeros de telefonos, menu de navegacion,  e imágenes que enamoren, nombre del proyecto</t>
   </si>
   <si>
-    <t>decir que no se si agregarle un CTA, tengo dudas por la estetica y la vista despejada, pedir opinion</t>
-  </si>
-  <si>
     <t>mostrar paleta de colores y decirle que se lo pedi a chatgpt e indicar significado de los colores</t>
   </si>
   <si>
@@ -211,13 +210,125 @@
   </si>
   <si>
     <t>fotos/videos de las propiedades</t>
+  </si>
+  <si>
+    <t>Primarios</t>
+  </si>
+  <si>
+    <t>Blanco puro
+#FFF</t>
+  </si>
+  <si>
+    <t>Mar caribe tenue
+#1f8e78</t>
+  </si>
+  <si>
+    <t>Mar caribe brillante
+#55f9d8</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>Color del mar caribe
+turquoise
+#1ABC9C</t>
+  </si>
+  <si>
+    <t>Color de la arena
+sand
+#F3E5AB</t>
+  </si>
+  <si>
+    <t>Coral calido
+Coral
+#FF6F61</t>
+  </si>
+  <si>
+    <t>Verde palma
+#2ECC71</t>
+  </si>
+  <si>
+    <t>Dorado tenue
+#F1C40F</t>
+  </si>
+  <si>
+    <t>Complementarios</t>
+  </si>
+  <si>
+    <t>azul noche
+#34495E</t>
+  </si>
+  <si>
+    <t>Marron madera
+#8B572A</t>
+  </si>
+  <si>
+    <t>crear plataforma web</t>
+  </si>
+  <si>
+    <t xml:space="preserve">redes sociales </t>
+  </si>
+  <si>
+    <t>correos corporativos</t>
+  </si>
+  <si>
+    <t>campañas publicitarias</t>
+  </si>
+  <si>
+    <t>analizar, definir e implementar estrategias de fidelizacion</t>
+  </si>
+  <si>
+    <t>logo, colores</t>
+  </si>
+  <si>
+    <t>tomar fotografias y videos profesionales</t>
+  </si>
+  <si>
+    <t>redes sociales 2 post semanales</t>
+  </si>
+  <si>
+    <t>Crear blog en la web 1 post semanal de interes serio, situacion de punta cana, leyes, ventajas de invertir en el caribe etc</t>
+  </si>
+  <si>
+    <t>colaboraciones con negocios locales (le informas a tus clientes de mi villa y yo le sugiero a mis huespedes tu negocio)</t>
+  </si>
+  <si>
+    <t>alimentar una colección de clientes para posterior analisis (de donde vienen, que tiempo duran en el pais, cuantas veces al año se van de vacaciones, que edad tienen, cuanto estan dispuesto a pagar etc)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">analizar la eficiencia del proceso y como mejorarla, </t>
+  </si>
+  <si>
+    <t>evaluar formas rentables de como podemos afiliar otras villas con nosotros</t>
+  </si>
+  <si>
+    <t>post en las redes, post en el blog de la web, campañas publicitarias etc</t>
+  </si>
+  <si>
+    <t>Fase 1 - Del 15 de noviembre al 31 diciembre</t>
+  </si>
+  <si>
+    <t>Fase 2 - Del 1 de enero al 15 febrero</t>
+  </si>
+  <si>
+    <t>FASE 3 - Del 16 de febrero al 30 de marzo</t>
+  </si>
+  <si>
+    <t>Fase 4 - Del 1 abril en adelante</t>
+  </si>
+  <si>
+    <t>Evaluar resultados</t>
+  </si>
+  <si>
+    <t>Establecer nuevo plan a seguir o descartar proceso</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -241,8 +352,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="24"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -261,8 +420,74 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1ABC9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3E5AB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF1F8E78"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55F9D8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6F61"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2ECC71"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF1C40F"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF34495E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8B572A"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -285,21 +510,181 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -307,6 +692,20 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF8B572A"/>
+      <color rgb="FF34495E"/>
+      <color rgb="FFF1C40F"/>
+      <color rgb="FF2ECC71"/>
+      <color rgb="FFFFFFFF"/>
+      <color rgb="FFFF6F61"/>
+      <color rgb="FF55F9D8"/>
+      <color rgb="FF1F8E78"/>
+      <color rgb="FFF3E5AB"/>
+      <color rgb="FF1ABC9C"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -666,21 +1065,21 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="H14" s="6" t="s">
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
+      <c r="H14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="6"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -836,17 +1235,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F017AB-33D3-4443-A7D2-2711CC709789}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
@@ -864,8 +1263,8 @@
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
     </row>
@@ -891,16 +1290,16 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" t="s">
         <v>51</v>
       </c>
     </row>
@@ -911,17 +1310,17 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -929,13 +1328,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B18" t="s">
-        <v>57</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>43</v>
       </c>
     </row>
@@ -958,24 +1357,713 @@
       <c r="A24" s="3" t="s">
         <v>47</v>
       </c>
+      <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C25" s="4"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F27E20D-9DBD-4044-85B6-A68A0FED6E25}">
+  <dimension ref="A1:S35"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F28" sqref="F28:I35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="3.5546875" customWidth="1"/>
+    <col min="10" max="10" width="3.5546875" customWidth="1"/>
+    <col min="15" max="15" width="4.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+    </row>
+    <row r="2" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="22"/>
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
+      <c r="E2" s="22"/>
+      <c r="F2" s="22"/>
+      <c r="G2" s="22"/>
+      <c r="H2" s="22"/>
+      <c r="I2" s="22"/>
+      <c r="J2" s="22"/>
+      <c r="K2" s="22"/>
+      <c r="L2" s="22"/>
+      <c r="M2" s="22"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+    </row>
+    <row r="3" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A3" s="6"/>
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="6"/>
+      <c r="L3" s="6"/>
+      <c r="M3" s="6"/>
+      <c r="N3" s="6"/>
+      <c r="O3" s="6"/>
+      <c r="P3" s="6"/>
+      <c r="Q3" s="6"/>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A4" s="27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" s="28"/>
+      <c r="C4" s="28"/>
+      <c r="D4" s="28"/>
+      <c r="F4" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+      <c r="K4" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="L4" s="32"/>
+      <c r="M4" s="32"/>
+      <c r="N4" s="32"/>
+      <c r="P4" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" s="17"/>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A5" s="28"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="28"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="K5" s="32"/>
+      <c r="L5" s="32"/>
+      <c r="M5" s="32"/>
+      <c r="N5" s="32"/>
+      <c r="P5" s="12"/>
+      <c r="Q5" s="13"/>
+      <c r="R5" s="18"/>
+      <c r="S5" s="19"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A6" s="28"/>
+      <c r="B6" s="28"/>
+      <c r="C6" s="28"/>
+      <c r="D6" s="28"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="K6" s="32"/>
+      <c r="L6" s="32"/>
+      <c r="M6" s="32"/>
+      <c r="N6" s="32"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="13"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="19"/>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A7" s="28"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28"/>
+      <c r="D7" s="28"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="K7" s="32"/>
+      <c r="L7" s="32"/>
+      <c r="M7" s="32"/>
+      <c r="N7" s="32"/>
+      <c r="P7" s="12"/>
+      <c r="Q7" s="13"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="19"/>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A8" s="28"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="28"/>
+      <c r="D8" s="28"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="P8" s="12"/>
+      <c r="Q8" s="13"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="19"/>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A9" s="28"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="28"/>
+      <c r="D9" s="28"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="K9" s="32"/>
+      <c r="L9" s="32"/>
+      <c r="M9" s="32"/>
+      <c r="N9" s="32"/>
+      <c r="P9" s="12"/>
+      <c r="Q9" s="13"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="19"/>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A10" s="28"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="28"/>
+      <c r="D10" s="28"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="K10" s="32"/>
+      <c r="L10" s="32"/>
+      <c r="M10" s="32"/>
+      <c r="N10" s="32"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="13"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="19"/>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A11" s="28"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="28"/>
+      <c r="D11" s="28"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="K11" s="32"/>
+      <c r="L11" s="32"/>
+      <c r="M11" s="32"/>
+      <c r="N11" s="32"/>
+      <c r="P11" s="14"/>
+      <c r="Q11" s="15"/>
+      <c r="R11" s="20"/>
+      <c r="S11" s="21"/>
+    </row>
+    <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="22"/>
+      <c r="D13" s="22"/>
+      <c r="E13" s="22"/>
+      <c r="F13" s="22"/>
+      <c r="G13" s="22"/>
+      <c r="H13" s="22"/>
+      <c r="I13" s="22"/>
+      <c r="J13" s="22"/>
+      <c r="K13" s="22"/>
+      <c r="L13" s="22"/>
+      <c r="M13" s="22"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+    </row>
+    <row r="14" spans="1:19" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+    </row>
+    <row r="15" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A15" s="6"/>
+      <c r="B15" s="6"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6"/>
+      <c r="M15" s="6"/>
+      <c r="N15" s="6"/>
+      <c r="O15" s="6"/>
+      <c r="P15" s="6"/>
+      <c r="Q15" s="6"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+      <c r="F16" s="35" t="s">
+        <v>65</v>
+      </c>
+      <c r="G16" s="36"/>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="K16" s="37" t="s">
+        <v>66</v>
+      </c>
+      <c r="L16" s="38"/>
+      <c r="M16" s="38"/>
+      <c r="N16" s="38"/>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+      <c r="F17" s="36"/>
+      <c r="G17" s="36"/>
+      <c r="H17" s="36"/>
+      <c r="I17" s="36"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="38"/>
+      <c r="N17" s="38"/>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+      <c r="F18" s="36"/>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="38"/>
+      <c r="N18" s="38"/>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A19" s="34"/>
+      <c r="B19" s="34"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="F19" s="36"/>
+      <c r="G19" s="36"/>
+      <c r="H19" s="36"/>
+      <c r="I19" s="36"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="38"/>
+      <c r="N19" s="38"/>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A20" s="34"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="F20" s="36"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38"/>
+      <c r="N20" s="38"/>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="F21" s="36"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="36"/>
+      <c r="I21" s="36"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38"/>
+      <c r="N21" s="38"/>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A22" s="34"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38"/>
+      <c r="N22" s="38"/>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A23" s="34"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="F23" s="36"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="36"/>
+      <c r="I23" s="36"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38"/>
+      <c r="N23" s="38"/>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A25" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="22"/>
+      <c r="F25" s="22"/>
+      <c r="G25" s="22"/>
+      <c r="H25" s="22"/>
+      <c r="I25" s="22"/>
+      <c r="J25" s="22"/>
+      <c r="K25" s="22"/>
+      <c r="L25" s="22"/>
+      <c r="M25" s="22"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A26" s="22"/>
+      <c r="B26" s="22"/>
+      <c r="C26" s="22"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="22"/>
+      <c r="F26" s="22"/>
+      <c r="G26" s="22"/>
+      <c r="H26" s="22"/>
+      <c r="I26" s="22"/>
+      <c r="J26" s="22"/>
+      <c r="K26" s="22"/>
+      <c r="L26" s="22"/>
+      <c r="M26" s="22"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="F28" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="G28" s="26"/>
+      <c r="H28" s="26"/>
+      <c r="I28" s="26"/>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A29" s="24"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="26"/>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A30" s="24"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="F30" s="26"/>
+      <c r="G30" s="26"/>
+      <c r="H30" s="26"/>
+      <c r="I30" s="26"/>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A31" s="24"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="F31" s="26"/>
+      <c r="G31" s="26"/>
+      <c r="H31" s="26"/>
+      <c r="I31" s="26"/>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A32" s="24"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="F32" s="26"/>
+      <c r="G32" s="26"/>
+      <c r="H32" s="26"/>
+      <c r="I32" s="26"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A33" s="24"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="F33" s="26"/>
+      <c r="G33" s="26"/>
+      <c r="H33" s="26"/>
+      <c r="I33" s="26"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A34" s="24"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="F34" s="26"/>
+      <c r="G34" s="26"/>
+      <c r="H34" s="26"/>
+      <c r="I34" s="26"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A35" s="24"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="F35" s="26"/>
+      <c r="G35" s="26"/>
+      <c r="H35" s="26"/>
+      <c r="I35" s="26"/>
+    </row>
+  </sheetData>
+  <mergeCells count="13">
+    <mergeCell ref="P4:Q11"/>
+    <mergeCell ref="R4:S11"/>
+    <mergeCell ref="A1:S2"/>
+    <mergeCell ref="A13:S14"/>
+    <mergeCell ref="A28:D35"/>
+    <mergeCell ref="F28:I35"/>
+    <mergeCell ref="A25:S26"/>
+    <mergeCell ref="A4:D11"/>
+    <mergeCell ref="F4:I11"/>
+    <mergeCell ref="K4:N11"/>
+    <mergeCell ref="A16:D23"/>
+    <mergeCell ref="F16:I23"/>
+    <mergeCell ref="K16:N23"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338DFA18-728D-4552-951B-CA776A13332B}">
+  <dimension ref="A1:B24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="84.44140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="40"/>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="40" t="s">
+        <v>85</v>
+      </c>
+      <c r="B9" s="40"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B11" s="39" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B13" s="39" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="B14" s="39" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="40"/>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="40" t="s">
+        <v>87</v>
+      </c>
+      <c r="B22" s="40"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A9:B9"/>
+    <mergeCell ref="A16:B16"/>
+    <mergeCell ref="A22:B22"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Master.xlsx
+++ b/Master.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpere\Escritorio\Jose's Project\04-Villa Koi\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jpere\Escritorio\Jose's Project\03-Growth Partner\01-Villa Koi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0D0CE4-409C-42B3-B4E0-6D7CF24EEF1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03B57AFF-F6C4-4454-AC76-8D3DC0FB6FC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
-    <sheet name="colores" sheetId="3" r:id="rId3"/>
-    <sheet name="plan" sheetId="4" r:id="rId4"/>
+    <sheet name="conceptos2" sheetId="7" r:id="rId1"/>
+    <sheet name="line" sheetId="1" r:id="rId2"/>
+    <sheet name="recursos" sheetId="3" r:id="rId3"/>
+    <sheet name="fases" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="128">
   <si>
     <t>nov y dic</t>
   </si>
@@ -137,39 +137,6 @@
     <t>o te entrego el proyecto y lo colocas en otro hosting</t>
   </si>
   <si>
-    <t>mostrar logo</t>
-  </si>
-  <si>
-    <t>enviar numeros de cuenta</t>
-  </si>
-  <si>
-    <t>mostrar pagina y pedir opinion</t>
-  </si>
-  <si>
-    <t>preguntas por imágenes de la propiedad</t>
-  </si>
-  <si>
-    <t>decir que la caja de las RRSS mejor no colocarla al frente sino en el footer</t>
-  </si>
-  <si>
-    <t>decir que el link tiene que verlo en una PC pues todavia no creo el responsive</t>
-  </si>
-  <si>
-    <t>decir que coloque un giro con una vista despejada para que las imágenes resalten la belleza de la propiedad</t>
-  </si>
-  <si>
-    <t>decir que la idea  de este HERO es que al usuario entrar ver  una vista despejada con cosas especificas; numeros de telefonos, menu de navegacion,  e imágenes que enamoren, nombre del proyecto</t>
-  </si>
-  <si>
-    <t>mostrar paleta de colores y decirle que se lo pedi a chatgpt e indicar significado de los colores</t>
-  </si>
-  <si>
-    <t>hablarle sobre el enlace de calendarios</t>
-  </si>
-  <si>
-    <t>mostrar lista de subtitulos corto de chatgpto</t>
-  </si>
-  <si>
     <t>"Tu refugio en el paraíso."</t>
   </si>
   <si>
@@ -191,25 +158,7 @@
     <t>"El Caribe a tu medida."</t>
   </si>
   <si>
-    <t>costos</t>
-  </si>
-  <si>
-    <t>calendario</t>
-  </si>
-  <si>
-    <t>administrador de correos de google</t>
-  </si>
-  <si>
-    <t>hosting</t>
-  </si>
-  <si>
     <t>dominio</t>
-  </si>
-  <si>
-    <t>logo</t>
-  </si>
-  <si>
-    <t>fotos/videos de las propiedades</t>
   </si>
   <si>
     <t>Primarios</t>
@@ -322,6 +271,171 @@
   </si>
   <si>
     <t>Establecer nuevo plan a seguir o descartar proceso</t>
+  </si>
+  <si>
+    <t>verificar conversacion de whatsapp y sacar ideas</t>
+  </si>
+  <si>
+    <t>hacer tabla de gastos</t>
+  </si>
+  <si>
+    <t>definir lista de ventajas competitivas</t>
+  </si>
+  <si>
+    <t>definir nueva propuesta</t>
+  </si>
+  <si>
+    <t>estudiar airbnb y booking</t>
+  </si>
+  <si>
+    <t>lista de fortalezas</t>
+  </si>
+  <si>
+    <t>tabla de costos</t>
+  </si>
+  <si>
+    <t>lista de sitios web de ref</t>
+  </si>
+  <si>
+    <t>apoyarnos en Lodgify</t>
+  </si>
+  <si>
+    <t>13 euros al mes</t>
+  </si>
+  <si>
+    <t>una pasarela de pago cuesta mas y Lodgify ya te permite recibir pagos online</t>
+  </si>
+  <si>
+    <t>https://calendly.com/juliette-flot/20min?month=2024-12</t>
+  </si>
+  <si>
+    <t>https://www.mingalodge.com/</t>
+  </si>
+  <si>
+    <t>recursos para el sitio web</t>
+  </si>
+  <si>
+    <t>tomar blog de referencia</t>
+  </si>
+  <si>
+    <t>https://www.lodgify.com/blog/es/webs-lodgify-wordpress/</t>
+  </si>
+  <si>
+    <t>llamada de Lodgify, puedo agendar una llamada en ese link para preguntar todas mis dudas a Lodgify</t>
+  </si>
+  <si>
+    <t>en cada post hacer enlace a otro post</t>
+  </si>
+  <si>
+    <t>dudas</t>
+  </si>
+  <si>
+    <t>tenemos alguna carta de bienvenida, instrucciones de usar los electrodomesticos etc ¿?</t>
+  </si>
+  <si>
+    <t>https://www.lodgify.com/blog/wp-content/uploads/2018/12/ES_Welcome_Letter.pdf?utm_campaign=ES%20-%20Content%20eBook%20Campaigns&amp;utm_medium=email&amp;_hsenc=p2ANqtz-8_ieHqedV--x0ynbI6sjjNpFNk9TTtXDLOgueXFWic15rWVpXFJfjuyuJLZEHZMALULFqx8ZqM3u3MwUaZ0XtVnuWJpg&amp;_hsmi=75863625&amp;utm_content=75863625&amp;utm_source=hs_automation</t>
+  </si>
+  <si>
+    <t>enlace de carta de biemvenida</t>
+  </si>
+  <si>
+    <t>colocar video kostia hablando igual que el sitio web de https://www.mingalodge.com/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">link del video </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=S7gJV3Jwmh4&amp;t=49s</t>
+  </si>
+  <si>
+    <t>https://puurcuracao.com/</t>
+  </si>
+  <si>
+    <t>https://www.auldhamehouse.com/</t>
+  </si>
+  <si>
+    <t>https://brooklynbeachclubwildwood.com/</t>
+  </si>
+  <si>
+    <t>https://www.eastwoodobservatory.co.uk/</t>
+  </si>
+  <si>
+    <t>buen video mostrar a kostia</t>
+  </si>
+  <si>
+    <t>pagina de checkout de logify</t>
+  </si>
+  <si>
+    <t>https://goldenridgemanor.com/</t>
+  </si>
+  <si>
+    <t>https://checkout.lodgify.com/goldenridgemanor/392145/reservation?currency=USD&amp;adults=1</t>
+  </si>
+  <si>
+    <t>https://starlightretreat.com/</t>
+  </si>
+  <si>
+    <t>a quien venderle las villas</t>
+  </si>
+  <si>
+    <t>a parejas a modo romantico</t>
+  </si>
+  <si>
+    <t>a grupos de amigos</t>
+  </si>
+  <si>
+    <t>ejemplo de blog</t>
+  </si>
+  <si>
+    <t>https://flujosdecaja.net/blog/guia-para-entender-como-funciona-la-inversion-en-renta-fija/</t>
+  </si>
+  <si>
+    <t>pagina web mas avanzada</t>
+  </si>
+  <si>
+    <t>pagina web con video</t>
+  </si>
+  <si>
+    <t>nueva propuesta</t>
+  </si>
+  <si>
+    <t>plan con las redes sociales</t>
+  </si>
+  <si>
+    <t>tabla de gastos</t>
+  </si>
+  <si>
+    <t>ventajas competitivas</t>
+  </si>
+  <si>
+    <t>lista de dudas</t>
+  </si>
+  <si>
+    <t>cuenta de instagram</t>
+  </si>
+  <si>
+    <t>entregables agregar valor</t>
+  </si>
+  <si>
+    <t>fan page de facebook hablar</t>
+  </si>
+  <si>
+    <t>linkedin</t>
+  </si>
+  <si>
+    <t>twitter</t>
+  </si>
+  <si>
+    <t>lista de paginas web de este tipo para evaluacion</t>
+  </si>
+  <si>
+    <t>necesitamos las imágenes y videos de villas nuestras</t>
+  </si>
+  <si>
+    <t>preguntas lodgify</t>
+  </si>
+  <si>
+    <t>el propietario del inmueble desde mi pagina web podra tener acceso a, dias disponible de la villa, facturacion, historico etc?</t>
   </si>
 </sst>
 </file>
@@ -338,14 +452,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -400,8 +506,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="16">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -417,12 +531,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.39997558519241921"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -483,6 +591,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -573,75 +693,92 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,44 +787,38 @@
     <xf numFmtId="0" fontId="6" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -979,11 +1110,191 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94CDD814-409A-46C8-80C2-29DF2741D167}">
+  <sheetPr>
+    <tabColor rgb="FFFFC000"/>
+  </sheetPr>
+  <dimension ref="A1:N31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="41" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>76</v>
+      </c>
+      <c r="K2" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11"/>
+      <c r="N2" s="11"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+      <c r="N3" s="11"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>75</v>
+      </c>
+      <c r="K4" s="6"/>
+      <c r="L4" s="6"/>
+      <c r="M4" s="6"/>
+      <c r="N4" s="6"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K5" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="K6" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="K2:N3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1065,21 +1376,21 @@
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A14" s="8" t="s">
+      <c r="A14" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="8"/>
-      <c r="D14" s="8"/>
-      <c r="E14" s="8"/>
-      <c r="F14" s="8"/>
-      <c r="H14" s="9" t="s">
+      <c r="B14" s="12"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="H14" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="9"/>
-      <c r="J14" s="9"/>
-      <c r="K14" s="9"/>
-      <c r="L14" s="9"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
+      <c r="K14" s="13"/>
+      <c r="L14" s="13"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
@@ -1233,153 +1544,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{08F017AB-33D3-4443-A7D2-2711CC709789}">
-  <dimension ref="A1:C26"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B14" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F27E20D-9DBD-4044-85B6-A68A0FED6E25}">
-  <dimension ref="A1:S35"/>
+  <dimension ref="A1:S77"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F28" sqref="F28:I35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1389,548 +1559,712 @@
     <col min="15" max="15" width="4.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-    </row>
-    <row r="2" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="22"/>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-    </row>
-    <row r="3" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="6"/>
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="6"/>
-      <c r="N3" s="6"/>
-      <c r="O3" s="6"/>
-      <c r="P3" s="6"/>
-      <c r="Q3" s="6"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>62</v>
-      </c>
-      <c r="B4" s="28"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="28"/>
-      <c r="F4" s="29" t="s">
-        <v>63</v>
-      </c>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-      <c r="K4" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="L4" s="32"/>
-      <c r="M4" s="32"/>
-      <c r="N4" s="32"/>
-      <c r="P4" s="10" t="s">
-        <v>59</v>
-      </c>
-      <c r="Q4" s="11"/>
-      <c r="R4" s="16" t="s">
-        <v>60</v>
-      </c>
-      <c r="S4" s="17"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A5" s="28"/>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="28"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="K5" s="32"/>
-      <c r="L5" s="32"/>
-      <c r="M5" s="32"/>
-      <c r="N5" s="32"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="13"/>
-      <c r="R5" s="18"/>
-      <c r="S5" s="19"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A6" s="28"/>
-      <c r="B6" s="28"/>
-      <c r="C6" s="28"/>
-      <c r="D6" s="28"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="K6" s="32"/>
-      <c r="L6" s="32"/>
-      <c r="M6" s="32"/>
-      <c r="N6" s="32"/>
-      <c r="P6" s="12"/>
-      <c r="Q6" s="13"/>
-      <c r="R6" s="18"/>
-      <c r="S6" s="19"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A7" s="28"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="28"/>
-      <c r="D7" s="28"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="K7" s="32"/>
-      <c r="L7" s="32"/>
-      <c r="M7" s="32"/>
-      <c r="N7" s="32"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="13"/>
-      <c r="R7" s="18"/>
-      <c r="S7" s="19"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A8" s="28"/>
-      <c r="B8" s="28"/>
-      <c r="C8" s="28"/>
-      <c r="D8" s="28"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="P8" s="12"/>
-      <c r="Q8" s="13"/>
-      <c r="R8" s="18"/>
-      <c r="S8" s="19"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A9" s="28"/>
-      <c r="B9" s="28"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="28"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="K9" s="32"/>
-      <c r="L9" s="32"/>
-      <c r="M9" s="32"/>
-      <c r="N9" s="32"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="13"/>
-      <c r="R9" s="18"/>
-      <c r="S9" s="19"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A10" s="28"/>
-      <c r="B10" s="28"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="28"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="K10" s="32"/>
-      <c r="L10" s="32"/>
-      <c r="M10" s="32"/>
-      <c r="N10" s="32"/>
-      <c r="P10" s="12"/>
-      <c r="Q10" s="13"/>
-      <c r="R10" s="18"/>
-      <c r="S10" s="19"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A11" s="28"/>
-      <c r="B11" s="28"/>
-      <c r="C11" s="28"/>
-      <c r="D11" s="28"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="K11" s="32"/>
-      <c r="L11" s="32"/>
-      <c r="M11" s="32"/>
-      <c r="N11" s="32"/>
-      <c r="P11" s="14"/>
-      <c r="Q11" s="15"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="21"/>
-    </row>
-    <row r="13" spans="1:19" s="7" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="B13" s="22"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-    </row>
-    <row r="14" spans="1:19" s="7" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-    </row>
-    <row r="15" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A15" s="6"/>
-      <c r="B15" s="6"/>
-      <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="6"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="6"/>
-      <c r="O15" s="6"/>
-      <c r="P15" s="6"/>
-      <c r="Q15" s="6"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
-      <c r="F16" s="35" t="s">
-        <v>65</v>
-      </c>
-      <c r="G16" s="36"/>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="K16" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="L16" s="38"/>
-      <c r="M16" s="38"/>
-      <c r="N16" s="38"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A17" s="34"/>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
-      <c r="F17" s="36"/>
-      <c r="G17" s="36"/>
-      <c r="H17" s="36"/>
-      <c r="I17" s="36"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="38"/>
-      <c r="N17" s="38"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
-      <c r="F18" s="36"/>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="38"/>
-      <c r="N18" s="38"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A19" s="34"/>
-      <c r="B19" s="34"/>
-      <c r="C19" s="34"/>
-      <c r="D19" s="34"/>
-      <c r="F19" s="36"/>
-      <c r="G19" s="36"/>
-      <c r="H19" s="36"/>
-      <c r="I19" s="36"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="38"/>
-      <c r="N19" s="38"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="34"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="F20" s="36"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="38"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A21" s="34"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="F21" s="36"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="36"/>
-      <c r="I21" s="36"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38"/>
-      <c r="N21" s="38"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A22" s="34"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38"/>
-      <c r="N22" s="38"/>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="F23" s="36"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="36"/>
-      <c r="I23" s="36"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38"/>
-      <c r="N23" s="38"/>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A25" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A26" s="22"/>
-      <c r="B26" s="22"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A28" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="B28" s="24"/>
-      <c r="C28" s="24"/>
-      <c r="D28" s="24"/>
-      <c r="F28" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="G28" s="26"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="26"/>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A29" s="24"/>
-      <c r="B29" s="24"/>
-      <c r="C29" s="24"/>
-      <c r="D29" s="24"/>
-      <c r="F29" s="26"/>
-      <c r="G29" s="26"/>
-      <c r="H29" s="26"/>
-      <c r="I29" s="26"/>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A30" s="24"/>
-      <c r="B30" s="24"/>
-      <c r="C30" s="24"/>
-      <c r="D30" s="24"/>
-      <c r="F30" s="26"/>
-      <c r="G30" s="26"/>
-      <c r="H30" s="26"/>
-      <c r="I30" s="26"/>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A31" s="24"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="24"/>
-      <c r="D31" s="24"/>
-      <c r="F31" s="26"/>
-      <c r="G31" s="26"/>
-      <c r="H31" s="26"/>
-      <c r="I31" s="26"/>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A32" s="24"/>
-      <c r="B32" s="24"/>
-      <c r="C32" s="24"/>
-      <c r="D32" s="24"/>
-      <c r="F32" s="26"/>
-      <c r="G32" s="26"/>
-      <c r="H32" s="26"/>
-      <c r="I32" s="26"/>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A33" s="24"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="24"/>
-      <c r="D33" s="24"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="26"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="26"/>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A34" s="24"/>
-      <c r="B34" s="24"/>
-      <c r="C34" s="24"/>
-      <c r="D34" s="24"/>
-      <c r="F34" s="26"/>
-      <c r="G34" s="26"/>
-      <c r="H34" s="26"/>
-      <c r="I34" s="26"/>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A35" s="24"/>
-      <c r="B35" s="24"/>
-      <c r="C35" s="24"/>
-      <c r="D35" s="24"/>
-      <c r="F35" s="26"/>
-      <c r="G35" s="26"/>
-      <c r="H35" s="26"/>
-      <c r="I35" s="26"/>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="8" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="8" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="10" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F14" s="45" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="26" t="s">
+        <v>40</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
+      <c r="M43" s="26"/>
+      <c r="N43" s="26"/>
+      <c r="O43" s="26"/>
+      <c r="P43" s="26"/>
+      <c r="Q43" s="26"/>
+      <c r="R43" s="26"/>
+      <c r="S43" s="26"/>
+    </row>
+    <row r="44" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="26"/>
+      <c r="B44" s="26"/>
+      <c r="C44" s="26"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="26"/>
+      <c r="M44" s="26"/>
+      <c r="N44" s="26"/>
+      <c r="O44" s="26"/>
+      <c r="P44" s="26"/>
+      <c r="Q44" s="26"/>
+      <c r="R44" s="26"/>
+      <c r="S44" s="26"/>
+    </row>
+    <row r="45" spans="1:19" ht="13.2" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="4"/>
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="4"/>
+      <c r="K45" s="4"/>
+      <c r="L45" s="4"/>
+      <c r="M45" s="4"/>
+      <c r="N45" s="4"/>
+      <c r="O45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A46" s="31" t="s">
+        <v>45</v>
+      </c>
+      <c r="B46" s="32"/>
+      <c r="C46" s="32"/>
+      <c r="D46" s="32"/>
+      <c r="F46" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+      <c r="K46" s="35" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" s="36"/>
+      <c r="M46" s="36"/>
+      <c r="N46" s="36"/>
+      <c r="P46" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q46" s="15"/>
+      <c r="R46" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="S46" s="21"/>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A47" s="32"/>
+      <c r="B47" s="32"/>
+      <c r="C47" s="32"/>
+      <c r="D47" s="32"/>
+      <c r="F47" s="34"/>
+      <c r="G47" s="34"/>
+      <c r="H47" s="34"/>
+      <c r="I47" s="34"/>
+      <c r="K47" s="36"/>
+      <c r="L47" s="36"/>
+      <c r="M47" s="36"/>
+      <c r="N47" s="36"/>
+      <c r="P47" s="16"/>
+      <c r="Q47" s="17"/>
+      <c r="R47" s="22"/>
+      <c r="S47" s="23"/>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A48" s="32"/>
+      <c r="B48" s="32"/>
+      <c r="C48" s="32"/>
+      <c r="D48" s="32"/>
+      <c r="F48" s="34"/>
+      <c r="G48" s="34"/>
+      <c r="H48" s="34"/>
+      <c r="I48" s="34"/>
+      <c r="K48" s="36"/>
+      <c r="L48" s="36"/>
+      <c r="M48" s="36"/>
+      <c r="N48" s="36"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="17"/>
+      <c r="R48" s="22"/>
+      <c r="S48" s="23"/>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A49" s="32"/>
+      <c r="B49" s="32"/>
+      <c r="C49" s="32"/>
+      <c r="D49" s="32"/>
+      <c r="F49" s="34"/>
+      <c r="G49" s="34"/>
+      <c r="H49" s="34"/>
+      <c r="I49" s="34"/>
+      <c r="K49" s="36"/>
+      <c r="L49" s="36"/>
+      <c r="M49" s="36"/>
+      <c r="N49" s="36"/>
+      <c r="P49" s="16"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="23"/>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A50" s="32"/>
+      <c r="B50" s="32"/>
+      <c r="C50" s="32"/>
+      <c r="D50" s="32"/>
+      <c r="F50" s="34"/>
+      <c r="G50" s="34"/>
+      <c r="H50" s="34"/>
+      <c r="I50" s="34"/>
+      <c r="K50" s="36"/>
+      <c r="L50" s="36"/>
+      <c r="M50" s="36"/>
+      <c r="N50" s="36"/>
+      <c r="P50" s="16"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="23"/>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A51" s="32"/>
+      <c r="B51" s="32"/>
+      <c r="C51" s="32"/>
+      <c r="D51" s="32"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="K51" s="36"/>
+      <c r="L51" s="36"/>
+      <c r="M51" s="36"/>
+      <c r="N51" s="36"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="17"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="23"/>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A52" s="32"/>
+      <c r="B52" s="32"/>
+      <c r="C52" s="32"/>
+      <c r="D52" s="32"/>
+      <c r="F52" s="34"/>
+      <c r="G52" s="34"/>
+      <c r="H52" s="34"/>
+      <c r="I52" s="34"/>
+      <c r="K52" s="36"/>
+      <c r="L52" s="36"/>
+      <c r="M52" s="36"/>
+      <c r="N52" s="36"/>
+      <c r="P52" s="16"/>
+      <c r="Q52" s="17"/>
+      <c r="R52" s="22"/>
+      <c r="S52" s="23"/>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A53" s="32"/>
+      <c r="B53" s="32"/>
+      <c r="C53" s="32"/>
+      <c r="D53" s="32"/>
+      <c r="F53" s="34"/>
+      <c r="G53" s="34"/>
+      <c r="H53" s="34"/>
+      <c r="I53" s="34"/>
+      <c r="K53" s="36"/>
+      <c r="L53" s="36"/>
+      <c r="M53" s="36"/>
+      <c r="N53" s="36"/>
+      <c r="P53" s="18"/>
+      <c r="Q53" s="19"/>
+      <c r="R53" s="24"/>
+      <c r="S53" s="25"/>
+    </row>
+    <row r="55" spans="1:19" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
+        <v>44</v>
+      </c>
+      <c r="B55" s="26"/>
+      <c r="C55" s="26"/>
+      <c r="D55" s="26"/>
+      <c r="E55" s="26"/>
+      <c r="F55" s="26"/>
+      <c r="G55" s="26"/>
+      <c r="H55" s="26"/>
+      <c r="I55" s="26"/>
+      <c r="J55" s="26"/>
+      <c r="K55" s="26"/>
+      <c r="L55" s="26"/>
+      <c r="M55" s="26"/>
+      <c r="N55" s="26"/>
+      <c r="O55" s="26"/>
+      <c r="P55" s="26"/>
+      <c r="Q55" s="26"/>
+      <c r="R55" s="26"/>
+      <c r="S55" s="26"/>
+    </row>
+    <row r="56" spans="1:19" s="5" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="26"/>
+      <c r="B56" s="26"/>
+      <c r="C56" s="26"/>
+      <c r="D56" s="26"/>
+      <c r="E56" s="26"/>
+      <c r="F56" s="26"/>
+      <c r="G56" s="26"/>
+      <c r="H56" s="26"/>
+      <c r="I56" s="26"/>
+      <c r="J56" s="26"/>
+      <c r="K56" s="26"/>
+      <c r="L56" s="26"/>
+      <c r="M56" s="26"/>
+      <c r="N56" s="26"/>
+      <c r="O56" s="26"/>
+      <c r="P56" s="26"/>
+      <c r="Q56" s="26"/>
+      <c r="R56" s="26"/>
+      <c r="S56" s="26"/>
+    </row>
+    <row r="57" spans="1:19" ht="15.6" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="A57" s="4"/>
+      <c r="B57" s="4"/>
+      <c r="C57" s="4"/>
+      <c r="D57" s="4"/>
+      <c r="E57" s="4"/>
+      <c r="F57" s="4"/>
+      <c r="G57" s="4"/>
+      <c r="H57" s="4"/>
+      <c r="I57" s="4"/>
+      <c r="J57" s="4"/>
+      <c r="K57" s="4"/>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A58" s="37" t="s">
+        <v>47</v>
+      </c>
+      <c r="B58" s="38"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="38"/>
+      <c r="F58" s="39" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" s="40"/>
+      <c r="H58" s="40"/>
+      <c r="I58" s="40"/>
+      <c r="K58" s="41" t="s">
+        <v>49</v>
+      </c>
+      <c r="L58" s="42"/>
+      <c r="M58" s="42"/>
+      <c r="N58" s="42"/>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A59" s="38"/>
+      <c r="B59" s="38"/>
+      <c r="C59" s="38"/>
+      <c r="D59" s="38"/>
+      <c r="F59" s="40"/>
+      <c r="G59" s="40"/>
+      <c r="H59" s="40"/>
+      <c r="I59" s="40"/>
+      <c r="K59" s="42"/>
+      <c r="L59" s="42"/>
+      <c r="M59" s="42"/>
+      <c r="N59" s="42"/>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A60" s="38"/>
+      <c r="B60" s="38"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="38"/>
+      <c r="F60" s="40"/>
+      <c r="G60" s="40"/>
+      <c r="H60" s="40"/>
+      <c r="I60" s="40"/>
+      <c r="K60" s="42"/>
+      <c r="L60" s="42"/>
+      <c r="M60" s="42"/>
+      <c r="N60" s="42"/>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A61" s="38"/>
+      <c r="B61" s="38"/>
+      <c r="C61" s="38"/>
+      <c r="D61" s="38"/>
+      <c r="F61" s="40"/>
+      <c r="G61" s="40"/>
+      <c r="H61" s="40"/>
+      <c r="I61" s="40"/>
+      <c r="K61" s="42"/>
+      <c r="L61" s="42"/>
+      <c r="M61" s="42"/>
+      <c r="N61" s="42"/>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A62" s="38"/>
+      <c r="B62" s="38"/>
+      <c r="C62" s="38"/>
+      <c r="D62" s="38"/>
+      <c r="F62" s="40"/>
+      <c r="G62" s="40"/>
+      <c r="H62" s="40"/>
+      <c r="I62" s="40"/>
+      <c r="K62" s="42"/>
+      <c r="L62" s="42"/>
+      <c r="M62" s="42"/>
+      <c r="N62" s="42"/>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A63" s="38"/>
+      <c r="B63" s="38"/>
+      <c r="C63" s="38"/>
+      <c r="D63" s="38"/>
+      <c r="F63" s="40"/>
+      <c r="G63" s="40"/>
+      <c r="H63" s="40"/>
+      <c r="I63" s="40"/>
+      <c r="K63" s="42"/>
+      <c r="L63" s="42"/>
+      <c r="M63" s="42"/>
+      <c r="N63" s="42"/>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A64" s="38"/>
+      <c r="B64" s="38"/>
+      <c r="C64" s="38"/>
+      <c r="D64" s="38"/>
+      <c r="F64" s="40"/>
+      <c r="G64" s="40"/>
+      <c r="H64" s="40"/>
+      <c r="I64" s="40"/>
+      <c r="K64" s="42"/>
+      <c r="L64" s="42"/>
+      <c r="M64" s="42"/>
+      <c r="N64" s="42"/>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A65" s="38"/>
+      <c r="B65" s="38"/>
+      <c r="C65" s="38"/>
+      <c r="D65" s="38"/>
+      <c r="F65" s="40"/>
+      <c r="G65" s="40"/>
+      <c r="H65" s="40"/>
+      <c r="I65" s="40"/>
+      <c r="K65" s="42"/>
+      <c r="L65" s="42"/>
+      <c r="M65" s="42"/>
+      <c r="N65" s="42"/>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A67" s="26" t="s">
+        <v>50</v>
+      </c>
+      <c r="B67" s="26"/>
+      <c r="C67" s="26"/>
+      <c r="D67" s="26"/>
+      <c r="E67" s="26"/>
+      <c r="F67" s="26"/>
+      <c r="G67" s="26"/>
+      <c r="H67" s="26"/>
+      <c r="I67" s="26"/>
+      <c r="J67" s="26"/>
+      <c r="K67" s="26"/>
+      <c r="L67" s="26"/>
+      <c r="M67" s="26"/>
+      <c r="N67" s="26"/>
+      <c r="O67" s="26"/>
+      <c r="P67" s="26"/>
+      <c r="Q67" s="26"/>
+      <c r="R67" s="26"/>
+      <c r="S67" s="26"/>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A68" s="26"/>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="26"/>
+      <c r="E68" s="26"/>
+      <c r="F68" s="26"/>
+      <c r="G68" s="26"/>
+      <c r="H68" s="26"/>
+      <c r="I68" s="26"/>
+      <c r="J68" s="26"/>
+      <c r="K68" s="26"/>
+      <c r="L68" s="26"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="26"/>
+      <c r="P68" s="26"/>
+      <c r="Q68" s="26"/>
+      <c r="R68" s="26"/>
+      <c r="S68" s="26"/>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A70" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="B70" s="28"/>
+      <c r="C70" s="28"/>
+      <c r="D70" s="28"/>
+      <c r="F70" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A71" s="28"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="28"/>
+      <c r="D71" s="28"/>
+      <c r="F71" s="30"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A72" s="28"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="28"/>
+      <c r="D72" s="28"/>
+      <c r="F72" s="30"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A73" s="28"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="28"/>
+      <c r="D73" s="28"/>
+      <c r="F73" s="30"/>
+      <c r="G73" s="30"/>
+      <c r="H73" s="30"/>
+      <c r="I73" s="30"/>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A74" s="28"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="28"/>
+      <c r="D74" s="28"/>
+      <c r="F74" s="30"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A75" s="28"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="28"/>
+      <c r="D75" s="28"/>
+      <c r="F75" s="30"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A76" s="28"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="28"/>
+      <c r="D76" s="28"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="A77" s="28"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="28"/>
+      <c r="D77" s="28"/>
+      <c r="F77" s="30"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P4:Q11"/>
-    <mergeCell ref="R4:S11"/>
-    <mergeCell ref="A1:S2"/>
-    <mergeCell ref="A13:S14"/>
-    <mergeCell ref="A28:D35"/>
-    <mergeCell ref="F28:I35"/>
-    <mergeCell ref="A25:S26"/>
-    <mergeCell ref="A4:D11"/>
-    <mergeCell ref="F4:I11"/>
-    <mergeCell ref="K4:N11"/>
-    <mergeCell ref="A16:D23"/>
-    <mergeCell ref="F16:I23"/>
-    <mergeCell ref="K16:N23"/>
+    <mergeCell ref="P46:Q53"/>
+    <mergeCell ref="R46:S53"/>
+    <mergeCell ref="A43:S44"/>
+    <mergeCell ref="A55:S56"/>
+    <mergeCell ref="A70:D77"/>
+    <mergeCell ref="F70:I77"/>
+    <mergeCell ref="A67:S68"/>
+    <mergeCell ref="A46:D53"/>
+    <mergeCell ref="F46:I53"/>
+    <mergeCell ref="K46:N53"/>
+    <mergeCell ref="A58:D65"/>
+    <mergeCell ref="F58:I65"/>
+    <mergeCell ref="K58:N65"/>
   </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="A9" r:id="rId1" xr:uid="{89136883-CBDC-4125-956A-1B9242A498D1}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{FD7798CB-7D9D-47F4-9FE9-9B36D02E26B9}"/>
+    <hyperlink ref="A11" r:id="rId3" xr:uid="{17126DEC-BB02-412D-9C6A-5D5A4D17F008}"/>
+    <hyperlink ref="A12" r:id="rId4" xr:uid="{031BE8F0-6891-48B8-8107-8D0CCE7A74D3}"/>
+    <hyperlink ref="A13" r:id="rId5" xr:uid="{27F6A7AC-E2FB-4AB8-884B-9D0FD4EBE25D}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{B110E292-A6FB-405E-A4D0-ED941C52D7B6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1939,8 +2273,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{338DFA18-728D-4552-951B-CA776A13332B}">
   <dimension ref="A1:B24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1949,112 +2283,112 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="40"/>
+      <c r="A1" s="43" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" s="43"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>75</v>
+        <v>58</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>76</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="40" t="s">
-        <v>85</v>
-      </c>
-      <c r="B9" s="40"/>
+      <c r="A9" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="43"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B11" s="39" t="s">
-        <v>78</v>
+      <c r="B11" s="6" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>77</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B13" s="39" t="s">
-        <v>79</v>
+      <c r="B13" s="6" t="s">
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B14" s="39" t="s">
-        <v>80</v>
+      <c r="B14" s="6" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="40" t="s">
-        <v>86</v>
-      </c>
-      <c r="B16" s="40"/>
+      <c r="A16" s="43" t="s">
+        <v>69</v>
+      </c>
+      <c r="B16" s="43"/>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>74</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>81</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>82</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>83</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="40" t="s">
-        <v>87</v>
-      </c>
-      <c r="B22" s="40"/>
+      <c r="A22" s="43" t="s">
+        <v>70</v>
+      </c>
+      <c r="B22" s="43"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>88</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>89</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
